--- a/similarities/split_global/harmonic_similarity_timestamps_330.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_330.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,710 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>jaah_83</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G', 'A:7', 'D']]</t>
+          <t>['G:7', 'C', 'D:7/C']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['Db:maj', 'Eb:7', 'Ab:maj']]</t>
+          <t>['D:7', 'G', 'A:7']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:27.609000', '0:00:32.201000')]</t>
+          <t>('0:03:47.160000', '0:03:55.360000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:24.398000', '0:00:28.578000')]</t>
+          <t>('0:00:27.290000', '0:00:33.090000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=27.609']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=227.16</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=24.398']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=27.29</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj']]</t>
+          <t>['F:7', 'Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb:min', 'F']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:05.460000', '0:00:15.600000')]</t>
+          <t>('0:00:12.430000', '0:00:17.230000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:30.390000', '0:00:34.950000')]</t>
+          <t>('0:01:08.080000', '0:01:20.280000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=5.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=12.43</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=30.39']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=68.08</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>schubert-winterreise_183</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>isophonics_265</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:07.700000', '0:00:12.060000')]</t>
+          <t>('0:02:08.540000', '0:02:12.840000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
+          <t>('0:01:45.425056', '0:01:55.003287')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=7.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-106#t=39.84']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=105.425056</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
+          <t>['E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:35.888000', '0:00:38.359000')]</t>
+          <t>('0:00:46.750000', '0:00:47.790000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:08.220000', '0:00:16.760000')]</t>
+          <t>('0:00:01.340000', '0:00:08.860000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=35.888']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=8.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=1.34</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_103</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['F:maj/A', 'C:7', 'F:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:42.140000', '0:00:44.360000')]</t>
+          <t>('0:00:09.240000', '0:00:12.020000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:01.980000', '0:00:08.680000')]</t>
+          <t>('0:00:44.760000', '0:00:48.460000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=42.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=9.24</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=1.98']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=44.76</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>schubert-winterreise_208</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['F:maj', 'D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['D#/G', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:04:22.920000', '0:04:29.360000')]</t>
+          <t>('0:01:56.800000', '0:02:12.880000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:06.590000', '0:00:14.660000')]</t>
+          <t>('0:01:04.680000', '0:01:10.020000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=262.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=116.8</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=64.68</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
+          <t>schubert-winterreise_3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
+          <t>jaah_78</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['C#:maj', 'G#:7', 'C#:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min'], ['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:09.140000', '0:00:16.920000'), ('0:00:19.480000', '0:00:25.860000')]</t>
+          <t>('0:00:00.480000', '0:00:08.480000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:12.120000', '0:00:17.320000'), ('0:00:01.540000', '0:00:03.580000')]</t>
+          <t>('0:00:49.560000', '0:00:55.720000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=9.14', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=19.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=0.48</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=12.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=1.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>schubert-winterreise_28</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:08.158789', '0:00:22.589990')]</t>
+          <t>('0:01:08.820000', '0:01:24.540000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:15.800000', '0:01:19.600000')]</t>
+          <t>('0:00:15.300000', '0:00:22.660000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=8.158789']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=68.82</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-28#t=15.3</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>isophonics_235</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
+          <t>isophonics_64</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A/3', 'D', 'A']]</t>
+          <t>['Eb', 'Bb', 'Eb']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['D', 'A', 'D']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:04.250000', '0:00:09.179000')]</t>
+          <t>('0:00:51.839081', '0:01:03.042709')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:00.866546', '0:00:12.917702')]</t>
+          <t>('0:02:06.506000', '0:02:17.555000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=51.839081</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=0.866546']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=126.506</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
+          <t>isophonics_138</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>schubert-winterreise_20</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Eb/5', 'Ab', 'Eb/3']]</t>
+          <t>['C:min', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:26.923922', '0:01:32.322562')]</t>
+          <t>('0:00:01.129708', '0:00:06.125260')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:01.320000', '0:01:03.700000')]</t>
+          <t>('0:00:39.040000', '0:00:46.100000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=86.923922']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=1.129708</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-20#t=39.04</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>isophonics_15</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_98</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>['G', 'F', 'C', 'F', 'C', 'G', 'F', 'C']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['B', 'A', 'E', 'A', 'E', 'B', 'A', 'E']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:05.980000')]</t>
+          <t>('0:00:54.715804', '0:01:49.932857')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:43.880000', '0:00:48.020000')]</t>
+          <t>('0:00:32.669000', '0:01:21.235000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=0.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=54.715804</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=43.88']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=32.669</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>isophonics_181</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Db', 'Db:min', 'Ab']]</t>
+          <t>['Bb', 'Eb', 'Bb']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:05.420000', '0:00:12.140000')]</t>
+          <t>('0:01:01.320000', '0:01:03.700000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:02:02.570000', '0:02:04.490000')]</t>
+          <t>('0:01:00.761383', '0:01:09.294716')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=5.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=122.57']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-181#t=60.761383</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G#:dim7', 'F:maj/C', 'C:7']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F/5', 'C:maj']]</t>
+          <t>['E:dim7', 'Bb', 'F:7']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+          <t>('0:01:14.420000', '0:01:16.580000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:10.619000', '0:00:16.742000')]</t>
+          <t>('0:00:15.800000', '0:00:17.410000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=74.42</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=10.619']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=15.8</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_1</t>
+          <t>schubert-winterreise_54</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Ab/5', 'Eb', 'Ab/5', 'Eb']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:18.978000', '0:00:25.693000')]</t>
+          <t>('0:00:18.420000', '0:00:24.340000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:30.020000', '0:00:32.840000')]</t>
+          <t>('0:00:41.580000', '0:00:43.480000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-1#t=18.978']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=18.42</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=30.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=41.58</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>schubert-winterreise_195</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['E:7/A', 'A:min', 'D:min/A', 'A:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:25.260000', '0:00:36.100000')]</t>
+          <t>('0:00:07.400000', '0:00:18.960000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:06.940000', '0:00:19.180000')]</t>
+          <t>('0:00:44.160000', '0:00:52.300000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=25.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=7.4</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=6.94']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=44.16</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
